--- a/Config/excel/军团.xlsx
+++ b/Config/excel/军团.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Legion" sheetId="1" r:id="rId1"/>
+    <sheet name="legions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>军师id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,18 +29,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id#id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lord#number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>军团长</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -58,6 +46,18 @@
   </si>
   <si>
     <t>所属势力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>advisor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -394,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -413,16 +413,16 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>0</v>
@@ -431,21 +431,60 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
